--- a/public/assets/BOs/Kronos.xlsx
+++ b/public/assets/BOs/Kronos.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\doc\coding\DoD\DeitiesOfDeath\public\assets\BOs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1237050C-414B-448D-9302-0FC088FFC09D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="3375" yWindow="3375" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Blad1" sheetId="1" r:id="rId4"/>
+    <sheet name="Blad1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="43">
   <si>
-    <t>Vroryn - Kronos 2TC - Defence</t>
-  </si>
-  <si>
     <t>Archaic</t>
   </si>
   <si>
@@ -24,18 +30,18 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>2</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve"> / 0 / 0 / 3</t>
     </r>
@@ -46,26 +52,26 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">2 / </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>1</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve"> / 0 / 3</t>
     </r>
@@ -76,26 +82,26 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">2 / 1 / </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>/ 3</t>
     </r>
@@ -106,26 +112,26 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">2 / 1 / </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>2</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve"> / 3</t>
     </r>
@@ -136,18 +142,18 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>5</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve"> / 1 / 2 / 3</t>
     </r>
@@ -164,26 +170,26 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">5 / </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>3</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve"> / 2 / 3</t>
     </r>
@@ -200,19 +206,18 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
+        <b/>
+        <sz val="11"/>
         <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">2 / 4 / 4 / </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b val="0"/>
+        <sz val="11"/>
         <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>3</t>
     </r>
@@ -220,18 +225,18 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
+        <sz val="11"/>
         <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
+        <sz val="11"/>
         <color rgb="FF0000FF"/>
-        <sz val="11.0"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>Villager transition:
 2 Food to Gold
@@ -244,64 +249,61 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
+        <b/>
+        <sz val="11"/>
         <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>4</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b val="0"/>
+        <sz val="11"/>
         <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve"> / </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
+        <b/>
+        <sz val="11"/>
         <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b val="0"/>
+        <sz val="11"/>
         <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">/ </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
+        <b/>
+        <sz val="11"/>
         <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>1</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b val="0"/>
+        <sz val="11"/>
         <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve"> / 3 + </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
+        <b/>
+        <sz val="11"/>
         <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>3 build TC</t>
     </r>
@@ -320,26 +322,26 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">4 / </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>3</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve"> / 1 / 3 + 3 build TC</t>
     </r>
@@ -353,18 +355,18 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>7</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve"> / 3 / 1 / 3 </t>
     </r>
@@ -379,18 +381,18 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">Once second TC is build: </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>Make Manors when needed</t>
     </r>
@@ -425,92 +427,115 @@
   </si>
   <si>
     <t xml:space="preserve">Make Military units </t>
+  </si>
+  <si>
+    <t>2TC - By Defence</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="13">
-    <font>
-      <sz val="10.0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="16" x14ac:knownFonts="1">
+    <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="14.0"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
       <i/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="4">
@@ -518,7 +543,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -534,69 +559,57 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="16">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -786,260 +799,282 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="32.25"/>
-    <col customWidth="1" min="2" max="2" width="50.5"/>
-    <col customWidth="1" min="3" max="3" width="62.63"/>
-    <col customWidth="1" min="4" max="4" width="50.0"/>
+    <col min="1" max="1" width="32.28515625" customWidth="1"/>
+    <col min="2" max="2" width="50.42578125" customWidth="1"/>
+    <col min="3" max="3" width="62.5703125" customWidth="1"/>
+    <col min="4" max="4" width="50" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="19.5" customHeight="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="s">
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+    </row>
+    <row r="3" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="3" t="s">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="3"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="3" t="s">
+      <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="3" t="s">
+      <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="s">
+      <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="s">
+      <c r="B7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="s">
+      <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="C8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="D8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="3" t="s">
+    </row>
+    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="s">
+      <c r="B9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="4"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="s">
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+    </row>
+    <row r="11" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3" t="s">
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="3"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="5" t="s">
+      <c r="B12" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="4"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="s">
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+    </row>
+    <row r="14" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="5" t="s">
+      <c r="B15" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="C15" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="D15" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="3" t="s">
+    </row>
+    <row r="16" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="3" t="s">
+      <c r="B16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="3" t="s">
+      <c r="D16" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="3" t="s">
+    </row>
+    <row r="17" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="3" t="s">
+      <c r="B17" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="C17" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A18" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="4"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="8" t="s">
+      <c r="B18" s="11"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="9" t="s">
+      <c r="B19" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="C19" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="D19" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D19" s="3" t="s">
+    </row>
+    <row r="20" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A20" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="9"/>
+    </row>
+    <row r="21" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A21" s="8" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="13"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="12" t="s">
+      <c r="B21" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="C21" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="D21" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A22" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="7" t="s">
+      <c r="B22" s="11"/>
+      <c r="C22" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="D22" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D22" s="10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="3"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="14"/>
+    </row>
+    <row r="23" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+    </row>
+    <row r="30" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A30" s="12"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A30:D30"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A10:D10"/>
     <mergeCell ref="A13:D13"/>
     <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A30:D30"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/public/assets/BOs/Kronos.xlsx
+++ b/public/assets/BOs/Kronos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\doc\coding\DoD\DeitiesOfDeath\public\assets\BOs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1237050C-414B-448D-9302-0FC088FFC09D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20398D12-424C-45D4-8CA5-92F7A1E68521}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3375" yWindow="3375" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="44">
   <si>
     <t>Archaic</t>
   </si>
@@ -429,14 +429,17 @@
     <t xml:space="preserve">Make Military units </t>
   </si>
   <si>
-    <t>2TC - By Defence</t>
+    <t>2TC - Defence</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=F6P6TrobTg8&amp;t=&amp;ab_channel=DeitiesofDeath</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -536,6 +539,14 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -567,10 +578,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -591,8 +603,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -812,7 +826,7 @@
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1054,7 +1068,9 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="1"/>
+      <c r="A23" s="16" t="s">
+        <v>43</v>
+      </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -1075,6 +1091,9 @@
     <mergeCell ref="A13:D13"/>
     <mergeCell ref="A18:B18"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A23" r:id="rId1" tooltip="https://www.youtube.com/watch?v=F6P6TrobTg8&amp;t=&amp;ab_channel=DeitiesofDeath" xr:uid="{F6959C48-359F-47E1-BFFE-889E8260611F}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/public/assets/BOs/Kronos.xlsx
+++ b/public/assets/BOs/Kronos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\doc\coding\DoD\DeitiesOfDeath\public\assets\BOs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20398D12-424C-45D4-8CA5-92F7A1E68521}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{938BA988-B72D-4806-B9B2-DCD788A1235C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -429,10 +429,10 @@
     <t xml:space="preserve">Make Military units </t>
   </si>
   <si>
-    <t>2TC - Defence</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=F6P6TrobTg8&amp;t=&amp;ab_channel=DeitiesofDeath</t>
+  </si>
+  <si>
+    <t>OUTDATED - 2TC - Defence</t>
   </si>
 </sst>
 </file>
@@ -593,6 +593,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -603,7 +604,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -826,7 +826,7 @@
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -838,20 +838,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
+      <c r="A1" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
     </row>
     <row r="3" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -926,12 +926,12 @@
       <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
     </row>
     <row r="11" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
@@ -954,12 +954,12 @@
       <c r="D12" s="1"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
     </row>
     <row r="14" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
@@ -1010,10 +1010,10 @@
       <c r="D17" s="1"/>
     </row>
     <row r="18" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="11"/>
+      <c r="B18" s="12"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
     </row>
@@ -1056,10 +1056,10 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B22" s="11"/>
+      <c r="B22" s="12"/>
       <c r="C22" s="1" t="s">
         <v>40</v>
       </c>
@@ -1068,18 +1068,18 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="16" t="s">
-        <v>43</v>
+      <c r="A23" s="10" t="s">
+        <v>42</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
     </row>
     <row r="30" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A30" s="12"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
+      <c r="A30" s="13"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/public/assets/BOs/Kronos.xlsx
+++ b/public/assets/BOs/Kronos.xlsx
@@ -1,26 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\doc\coding\DoD\DeitiesOfDeath\public\assets\BOs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{938BA988-B72D-4806-B9B2-DCD788A1235C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56E99529-FD81-4874-823C-7BD084572245}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Blad1" sheetId="1" r:id="rId1"/>
+    <sheet name="Feuil2" sheetId="3" r:id="rId1"/>
+    <sheet name="Feuil1" sheetId="2" r:id="rId2"/>
+    <sheet name="Blad1" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="91">
   <si>
     <t>Archaic</t>
   </si>
@@ -433,13 +435,435 @@
   </si>
   <si>
     <t>OUTDATED - 2TC - Defence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Standard ora/kronos water </t>
+  </si>
+  <si>
+    <t>Food / Wood / Gold</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>0/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>/0</t>
+    </r>
+  </si>
+  <si>
+    <t>Initial 2 vills are splitted: 1 build the dock the other goes to wood</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial1"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial1"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>0</t>
+    </r>
+  </si>
+  <si>
+    <t>Next vill to food (the one who made the dock goes to wood)  - AQ ship on the dock – if you are playing Kronos you can consider sending 1 oracle to have vision on use decontruction on the enemy dock to slow down his eco</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>3/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>0</t>
+    </r>
+  </si>
+  <si>
+    <t>Next vill to wood – make a manor</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1/3/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <t>Next vill to gold</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>/3/1</t>
+    </r>
+  </si>
+  <si>
+    <t>Next vill to food</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>/3/1</t>
+    </r>
+  </si>
+  <si>
+    <t>Next vill to food – around 2 minutes and 50 seconds you should have enough gold to make a temple. Stop the ship AQ if necessary to build a temple with your gold vill.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>/3/1</t>
+    </r>
+  </si>
+  <si>
+    <t>Next vill to food – Restart the AQ ship production (you normally want to get to 8-9 food ship</t>
+  </si>
+  <si>
+    <r>
+      <t>4/3/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <t>Click advance - Oceanus (3.30)</t>
+  </si>
+  <si>
+    <t>Redistribute your vill accordingly:</t>
+  </si>
+  <si>
+    <t>0/5/3</t>
+  </si>
+  <si>
+    <t>Send a vill to make your second dock (if medit) or build even a third dock on the opposite side (if anatolia)</t>
+  </si>
+  <si>
+    <t>You food income is entirely from water to you better not lose it!</t>
+  </si>
+  <si>
+    <t>Build the second manor with a gold vill during the aging up</t>
+  </si>
+  <si>
+    <t>As soon as you get to classical age be ready to pump on water!</t>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>/0/0</t>
+    </r>
+  </si>
+  <si>
+    <t>Initial 2 vills to food</t>
+  </si>
+  <si>
+    <t>Spread your oracles, make sure to move them as soon as they have max vision in order to explore as much map as possible quickly</t>
+  </si>
+  <si>
+    <r>
+      <t>2/0/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>/1</t>
+    </r>
+  </si>
+  <si>
+    <t>Next vill to wood</t>
+  </si>
+  <si>
+    <t>Make a manor (consider possible safety retrieve spot for your vill in case of rush)</t>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>/1/1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial1"/>
+      </rPr>
+      <t>/1/1</t>
+    </r>
+  </si>
+  <si>
+    <t>Make the temple with the gold vill</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial1"/>
+      </rPr>
+      <t>/1/1</t>
+    </r>
+  </si>
+  <si>
+    <t>Consider promoting an oracle to hero if you find a worth relic</t>
+  </si>
+  <si>
+    <t>Click advance - Oceanus (3.00)</t>
+  </si>
+  <si>
+    <t>Redistribute your vill according to what you want to do:</t>
+  </si>
+  <si>
+    <t>1/4/3</t>
+  </si>
+  <si>
+    <t>If you want to go for a fast second towncenter</t>
+  </si>
+  <si>
+    <t>3/3/2</t>
+  </si>
+  <si>
+    <t>If you want to go for a standard classical fight (1 rax – 1 crax)</t>
+  </si>
+  <si>
+    <t>4/2/2</t>
+  </si>
+  <si>
+    <t>If you want to go for double rax opening</t>
+  </si>
+  <si>
+    <t>Make sure to save your heroized oracle to help you defending against early harras such as Greek pressure and Valk harras.</t>
+  </si>
+  <si>
+    <t>standard kronos/ora</t>
+  </si>
+  <si>
+    <t>archaic</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="[$-410]General"/>
+    <numFmt numFmtId="165" formatCode="[$€-410]&quot; &quot;#,##0.00;[Red]&quot;-&quot;[$€-410]&quot; &quot;#,##0.00"/>
+  </numFmts>
+  <fonts count="27">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -547,6 +971,72 @@
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Black"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF1155CC"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -578,11 +1068,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="26" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -594,6 +1095,24 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="164" fontId="23" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -604,10 +1123,21 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="18" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="3" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="9">
+    <cellStyle name="Excel Built-in Hyperlink" xfId="4" xr:uid="{AF420925-7D11-4B4B-B056-D95B36C2C522}"/>
+    <cellStyle name="Excel Built-in Normal" xfId="2" xr:uid="{5F5B833E-894C-40AE-816C-12E3EC1F16F5}"/>
+    <cellStyle name="Heading" xfId="5" xr:uid="{F93BCE2D-11FB-45DE-AABF-099762F93990}"/>
+    <cellStyle name="Heading1" xfId="6" xr:uid="{0D91558A-CA94-4B52-A01E-6D82A406247E}"/>
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="3" xr:uid="{0C4249D6-572E-4D52-AB23-DB8CF996D3BD}"/>
+    <cellStyle name="Result" xfId="7" xr:uid="{B3530545-77F0-44E4-9A39-D4E56FE019D7}"/>
+    <cellStyle name="Result2" xfId="8" xr:uid="{825C184C-C0F7-43BC-BBD2-A7038F772CDC}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -819,17 +1349,442 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29201DD4-0BA0-4357-B6EF-E853727856B2}">
+  <dimension ref="A1:D17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I38" sqref="I38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="14.25">
+      <c r="A3" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+    </row>
+    <row r="4" spans="1:4" ht="15">
+      <c r="A4" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" s="14"/>
+    </row>
+    <row r="5" spans="1:4" ht="15">
+      <c r="A5" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+    </row>
+    <row r="6" spans="1:4" ht="15">
+      <c r="A6" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6" s="12"/>
+    </row>
+    <row r="7" spans="1:4" ht="15">
+      <c r="A7" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+    </row>
+    <row r="8" spans="1:4" ht="15">
+      <c r="A8" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="D8" s="12"/>
+    </row>
+    <row r="9" spans="1:4" ht="15">
+      <c r="A9" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="D9" s="12"/>
+    </row>
+    <row r="10" spans="1:4" ht="14.25">
+      <c r="A10" s="14"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+    </row>
+    <row r="11" spans="1:4" ht="15.75">
+      <c r="A11" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+    </row>
+    <row r="12" spans="1:4" ht="14.25">
+      <c r="A12" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="B12" s="12"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+    </row>
+    <row r="13" spans="1:4" ht="14.25">
+      <c r="A13" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+    </row>
+    <row r="14" spans="1:4" ht="14.25">
+      <c r="A14" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+    </row>
+    <row r="15" spans="1:4" ht="14.25">
+      <c r="A15" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+    </row>
+    <row r="16" spans="1:4" ht="14.25">
+      <c r="A16" s="14"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+    </row>
+    <row r="17" spans="2:4" ht="14.25">
+      <c r="B17" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A11:D11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2687224-6A85-4930-9E5B-62EF788BCCD3}">
+  <dimension ref="A1:D31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="22.5">
+      <c r="A1" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+    </row>
+    <row r="2" spans="1:4" ht="14.25">
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+    </row>
+    <row r="3" spans="1:4" ht="14.25">
+      <c r="A3" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+    </row>
+    <row r="4" spans="1:4" ht="15">
+      <c r="A4" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="12"/>
+      <c r="D4" s="14"/>
+    </row>
+    <row r="5" spans="1:4" ht="15">
+      <c r="A5" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+    </row>
+    <row r="6" spans="1:4" ht="15">
+      <c r="A6" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+    </row>
+    <row r="7" spans="1:4" ht="15">
+      <c r="A7" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+    </row>
+    <row r="8" spans="1:4" ht="15">
+      <c r="A8" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+    </row>
+    <row r="9" spans="1:4" ht="15">
+      <c r="A9" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="12"/>
+    </row>
+    <row r="10" spans="1:4" ht="15">
+      <c r="A10" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+    </row>
+    <row r="11" spans="1:4" ht="15">
+      <c r="A11" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+    </row>
+    <row r="12" spans="1:4" ht="15.75">
+      <c r="A12" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+    </row>
+    <row r="13" spans="1:4" ht="14.25">
+      <c r="A13" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" s="12"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+    </row>
+    <row r="14" spans="1:4" ht="15">
+      <c r="A14" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+    </row>
+    <row r="15" spans="1:4" ht="14.25">
+      <c r="A15" s="15"/>
+      <c r="B15" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+    </row>
+    <row r="16" spans="1:4" ht="14.25">
+      <c r="A16" s="15"/>
+      <c r="B16" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+    </row>
+    <row r="17" spans="1:4" ht="14.25">
+      <c r="A17" s="14"/>
+      <c r="B17" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+    </row>
+    <row r="18" spans="1:4" ht="14.25">
+      <c r="A18" s="14"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+    </row>
+    <row r="19" spans="1:4" ht="14.25">
+      <c r="A19" s="14"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+    </row>
+    <row r="20" spans="1:4" ht="14.25">
+      <c r="A20" s="14"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+    </row>
+    <row r="21" spans="1:4" ht="14.25">
+      <c r="A21" s="14"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+    </row>
+    <row r="22" spans="1:4" ht="14.25">
+      <c r="A22" s="14"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+    </row>
+    <row r="23" spans="1:4" ht="14.25">
+      <c r="A23" s="14"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+    </row>
+    <row r="24" spans="1:4" ht="14.25">
+      <c r="A24" s="14"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+    </row>
+    <row r="25" spans="1:4" ht="14.25">
+      <c r="A25" s="14"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+    </row>
+    <row r="26" spans="1:4" ht="14.25">
+      <c r="A26" s="14"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+    </row>
+    <row r="27" spans="1:4" ht="15">
+      <c r="A27" s="16"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+    </row>
+    <row r="28" spans="1:4" ht="15">
+      <c r="A28" s="13"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+    </row>
+    <row r="29" spans="1:4" ht="15">
+      <c r="A29" s="13"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+    </row>
+    <row r="30" spans="1:4" ht="14.25">
+      <c r="A30" s="15"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+    </row>
+    <row r="31" spans="1:4" ht="14.25">
+      <c r="A31" s="15"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A12:D12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="32.28515625" customWidth="1"/>
     <col min="2" max="2" width="50.42578125" customWidth="1"/>
@@ -837,23 +1792,23 @@
     <col min="4" max="4" width="50" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:4" ht="19.5" customHeight="1">
+      <c r="A1" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-    </row>
-    <row r="3" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+    </row>
+    <row r="3" spans="1:4" ht="14.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -861,7 +1816,7 @@
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="15">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -871,7 +1826,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="15">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -881,7 +1836,7 @@
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="15">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -891,7 +1846,7 @@
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="15">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -901,7 +1856,7 @@
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="15">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -915,7 +1870,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="15">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
@@ -925,15 +1880,15 @@
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="15" t="s">
+    <row r="10" spans="1:4">
+      <c r="A10" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-    </row>
-    <row r="11" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+    </row>
+    <row r="11" spans="1:4" ht="14.25">
       <c r="A11" s="1" t="s">
         <v>1</v>
       </c>
@@ -943,7 +1898,7 @@
       </c>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="15">
       <c r="A12" s="2" t="s">
         <v>18</v>
       </c>
@@ -953,15 +1908,15 @@
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="15" t="s">
+    <row r="13" spans="1:4">
+      <c r="A13" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-    </row>
-    <row r="14" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+    </row>
+    <row r="14" spans="1:4" ht="14.25">
       <c r="A14" s="1" t="s">
         <v>1</v>
       </c>
@@ -969,7 +1924,7 @@
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="15">
       <c r="A15" s="2" t="s">
         <v>21</v>
       </c>
@@ -983,7 +1938,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="15">
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
@@ -997,7 +1952,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="15">
       <c r="A17" s="1" t="s">
         <v>28</v>
       </c>
@@ -1009,15 +1964,15 @@
       </c>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="16" t="s">
+    <row r="18" spans="1:4" ht="15">
+      <c r="A18" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="12"/>
+      <c r="B18" s="20"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="15">
       <c r="A19" s="5" t="s">
         <v>32</v>
       </c>
@@ -1031,7 +1986,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" ht="14.25">
       <c r="A20" s="8" t="s">
         <v>9</v>
       </c>
@@ -1041,7 +1996,7 @@
       <c r="C20" s="1"/>
       <c r="D20" s="9"/>
     </row>
-    <row r="21" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" ht="14.25">
       <c r="A21" s="8" t="s">
         <v>36</v>
       </c>
@@ -1055,11 +2010,11 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="11" t="s">
+    <row r="22" spans="1:4" ht="15">
+      <c r="A22" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="B22" s="12"/>
+      <c r="B22" s="20"/>
       <c r="C22" s="1" t="s">
         <v>40</v>
       </c>
@@ -1067,7 +2022,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" ht="14.25">
       <c r="A23" s="10" t="s">
         <v>42</v>
       </c>
@@ -1075,11 +2030,11 @@
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
     </row>
-    <row r="30" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A30" s="13"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
+    <row r="30" spans="1:4" ht="12.75">
+      <c r="A30" s="21"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/public/assets/BOs/Kronos.xlsx
+++ b/public/assets/BOs/Kronos.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\doc\coding\DoD\DeitiesOfDeath\public\assets\BOs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56E99529-FD81-4874-823C-7BD084572245}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{108720EF-FA72-4010-A63B-BC14F1B8F949}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil2" sheetId="3" r:id="rId1"/>
-    <sheet name="Feuil1" sheetId="2" r:id="rId2"/>
+    <sheet name="Feuil3" sheetId="4" r:id="rId2"/>
     <sheet name="Blad1" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
@@ -437,9 +437,6 @@
     <t>OUTDATED - 2TC - Defence</t>
   </si>
   <si>
-    <t xml:space="preserve">Standard ora/kronos water </t>
-  </si>
-  <si>
     <t>Food / Wood / Gold</t>
   </si>
   <si>
@@ -849,10 +846,13 @@
     <t>Make sure to save your heroized oracle to help you defending against early harras such as Greek pressure and Valk harras.</t>
   </si>
   <si>
-    <t>standard kronos/ora</t>
-  </si>
-  <si>
     <t>archaic</t>
+  </si>
+  <si>
+    <t>Standard ora/kronos water - By Narcotic</t>
+  </si>
+  <si>
+    <t>Standard Kronos/Ora - By Narcotic</t>
   </si>
 </sst>
 </file>
@@ -1106,13 +1106,17 @@
     <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="164" fontId="23" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="18" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="3" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1123,10 +1127,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="18" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="3" applyFill="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Excel Built-in Hyperlink" xfId="4" xr:uid="{AF420925-7D11-4B4B-B056-D95B36C2C522}"/>
@@ -1352,159 +1352,157 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29201DD4-0BA0-4357-B6EF-E853727856B2}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I38" sqref="I38"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="14.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="13.8">
       <c r="A3" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B3" s="12"/>
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
     </row>
-    <row r="4" spans="1:4" ht="15">
+    <row r="4" spans="1:4" ht="13.8">
       <c r="A4" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="C4" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="D4" s="14"/>
+    </row>
+    <row r="5" spans="1:4" ht="13.8">
+      <c r="A5" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="D4" s="14"/>
-    </row>
-    <row r="5" spans="1:4" ht="15">
-      <c r="A5" s="15" t="s">
-        <v>71</v>
-      </c>
       <c r="B5" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
     </row>
-    <row r="6" spans="1:4" ht="15">
+    <row r="6" spans="1:4" ht="13.8">
       <c r="A6" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="C6" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="D6" s="12"/>
+    </row>
+    <row r="7" spans="1:4" ht="13.8">
+      <c r="A7" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="D6" s="12"/>
-    </row>
-    <row r="7" spans="1:4" ht="15">
-      <c r="A7" s="13" t="s">
-        <v>75</v>
-      </c>
       <c r="B7" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
     </row>
-    <row r="8" spans="1:4" ht="15">
+    <row r="8" spans="1:4" ht="13.8">
       <c r="A8" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="B8" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="C8" s="12" t="s">
+      <c r="D8" s="12"/>
+    </row>
+    <row r="9" spans="1:4" ht="13.8">
+      <c r="A9" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="D8" s="12"/>
-    </row>
-    <row r="9" spans="1:4" ht="15">
-      <c r="A9" s="15" t="s">
+      <c r="B9" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="B9" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>79</v>
-      </c>
       <c r="D9" s="12"/>
     </row>
-    <row r="10" spans="1:4" ht="14.25">
+    <row r="10" spans="1:4" ht="13.8">
       <c r="A10" s="14"/>
       <c r="B10" s="12"/>
       <c r="C10" s="14"/>
       <c r="D10" s="14"/>
     </row>
-    <row r="11" spans="1:4" ht="15.75">
+    <row r="11" spans="1:4" ht="15.6">
       <c r="A11" s="18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B11" s="18"/>
       <c r="C11" s="18"/>
       <c r="D11" s="18"/>
     </row>
-    <row r="12" spans="1:4" ht="14.25">
+    <row r="12" spans="1:4" ht="13.8">
       <c r="A12" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B12" s="12"/>
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
     </row>
-    <row r="13" spans="1:4" ht="14.25">
+    <row r="13" spans="1:4" ht="13.8">
       <c r="A13" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="B13" s="12" t="s">
         <v>82</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>83</v>
       </c>
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
     </row>
-    <row r="14" spans="1:4" ht="14.25">
+    <row r="14" spans="1:4" ht="13.8">
       <c r="A14" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="B14" s="12" t="s">
         <v>84</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>85</v>
       </c>
       <c r="C14" s="14"/>
       <c r="D14" s="14"/>
     </row>
-    <row r="15" spans="1:4" ht="14.25">
+    <row r="15" spans="1:4" ht="13.8">
       <c r="A15" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="B15" s="12" t="s">
         <v>86</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>87</v>
       </c>
       <c r="C15" s="14"/>
       <c r="D15" s="14"/>
     </row>
-    <row r="16" spans="1:4" ht="14.25">
+    <row r="16" spans="1:4" ht="13.8">
       <c r="A16" s="14"/>
       <c r="B16" s="14"/>
       <c r="C16" s="14"/>
       <c r="D16" s="14"/>
     </row>
-    <row r="17" spans="2:4" ht="14.25">
+    <row r="17" spans="2:4" ht="13.8">
       <c r="B17" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C17" s="14"/>
       <c r="D17" s="14"/>
@@ -1518,246 +1516,246 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2687224-6A85-4930-9E5B-62EF788BCCD3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9AFAB70-4E5E-42D3-83B6-DF9A10131128}">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="22.5">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:4" ht="21">
+      <c r="A1" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+    </row>
+    <row r="2" spans="1:4" ht="13.8">
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+    </row>
+    <row r="3" spans="1:4" ht="13.8">
+      <c r="A3" s="11" t="s">
         <v>44</v>
-      </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-    </row>
-    <row r="2" spans="1:4" ht="14.25">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-    </row>
-    <row r="3" spans="1:4" ht="14.25">
-      <c r="A3" s="11" t="s">
-        <v>45</v>
       </c>
       <c r="B3" s="12"/>
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
     </row>
-    <row r="4" spans="1:4" ht="15">
+    <row r="4" spans="1:4" ht="13.8">
       <c r="A4" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="12" t="s">
         <v>46</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>47</v>
       </c>
       <c r="C4" s="12"/>
       <c r="D4" s="14"/>
     </row>
-    <row r="5" spans="1:4" ht="15">
+    <row r="5" spans="1:4" ht="13.8">
       <c r="A5" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="12" t="s">
         <v>48</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>49</v>
       </c>
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
     </row>
-    <row r="6" spans="1:4" ht="15">
+    <row r="6" spans="1:4" ht="13.8">
       <c r="A6" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="12" t="s">
         <v>50</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>51</v>
       </c>
       <c r="C6" s="12"/>
       <c r="D6" s="12"/>
     </row>
-    <row r="7" spans="1:4" ht="15">
+    <row r="7" spans="1:4" ht="13.8">
       <c r="A7" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="12" t="s">
         <v>52</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>53</v>
       </c>
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
     </row>
-    <row r="8" spans="1:4" ht="15">
+    <row r="8" spans="1:4" ht="13.8">
       <c r="A8" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="12" t="s">
         <v>54</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>55</v>
       </c>
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
     </row>
-    <row r="9" spans="1:4" ht="15">
+    <row r="9" spans="1:4" ht="13.8">
       <c r="A9" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" s="12" t="s">
         <v>56</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>57</v>
       </c>
       <c r="C9" s="14"/>
       <c r="D9" s="12"/>
     </row>
-    <row r="10" spans="1:4" ht="15">
+    <row r="10" spans="1:4" ht="13.8">
       <c r="A10" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" s="12" t="s">
         <v>58</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>59</v>
       </c>
       <c r="C10" s="14"/>
       <c r="D10" s="14"/>
     </row>
-    <row r="11" spans="1:4" ht="15">
+    <row r="11" spans="1:4" ht="13.8">
       <c r="A11" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C11" s="14"/>
       <c r="D11" s="14"/>
     </row>
-    <row r="12" spans="1:4" ht="15.75">
+    <row r="12" spans="1:4" ht="15.6">
       <c r="A12" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B12" s="18"/>
       <c r="C12" s="18"/>
       <c r="D12" s="18"/>
     </row>
-    <row r="13" spans="1:4" ht="14.25">
+    <row r="13" spans="1:4" ht="13.8">
       <c r="A13" s="14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B13" s="12"/>
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
     </row>
-    <row r="14" spans="1:4" ht="15">
+    <row r="14" spans="1:4" ht="13.8">
       <c r="A14" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="B14" s="12" t="s">
         <v>63</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>64</v>
       </c>
       <c r="C14" s="14"/>
       <c r="D14" s="14"/>
     </row>
-    <row r="15" spans="1:4" ht="14.25">
+    <row r="15" spans="1:4" ht="13.8">
       <c r="A15" s="15"/>
       <c r="B15" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C15" s="14"/>
       <c r="D15" s="14"/>
     </row>
-    <row r="16" spans="1:4" ht="14.25">
+    <row r="16" spans="1:4" ht="13.8">
       <c r="A16" s="15"/>
       <c r="B16" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C16" s="14"/>
       <c r="D16" s="14"/>
     </row>
-    <row r="17" spans="1:4" ht="14.25">
+    <row r="17" spans="1:4" ht="13.8">
       <c r="A17" s="14"/>
       <c r="B17" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C17" s="14"/>
       <c r="D17" s="14"/>
     </row>
-    <row r="18" spans="1:4" ht="14.25">
+    <row r="18" spans="1:4" ht="13.8">
       <c r="A18" s="14"/>
       <c r="B18" s="14"/>
       <c r="C18" s="14"/>
       <c r="D18" s="14"/>
     </row>
-    <row r="19" spans="1:4" ht="14.25">
+    <row r="19" spans="1:4" ht="13.8">
       <c r="A19" s="14"/>
       <c r="B19" s="14"/>
       <c r="C19" s="14"/>
       <c r="D19" s="14"/>
     </row>
-    <row r="20" spans="1:4" ht="14.25">
+    <row r="20" spans="1:4" ht="13.8">
       <c r="A20" s="14"/>
       <c r="B20" s="14"/>
       <c r="C20" s="14"/>
       <c r="D20" s="14"/>
     </row>
-    <row r="21" spans="1:4" ht="14.25">
+    <row r="21" spans="1:4" ht="13.8">
       <c r="A21" s="14"/>
       <c r="B21" s="14"/>
       <c r="C21" s="14"/>
       <c r="D21" s="14"/>
     </row>
-    <row r="22" spans="1:4" ht="14.25">
+    <row r="22" spans="1:4" ht="13.8">
       <c r="A22" s="14"/>
       <c r="B22" s="14"/>
       <c r="C22" s="14"/>
       <c r="D22" s="14"/>
     </row>
-    <row r="23" spans="1:4" ht="14.25">
+    <row r="23" spans="1:4" ht="13.8">
       <c r="A23" s="14"/>
       <c r="B23" s="14"/>
       <c r="C23" s="14"/>
       <c r="D23" s="14"/>
     </row>
-    <row r="24" spans="1:4" ht="14.25">
+    <row r="24" spans="1:4" ht="13.8">
       <c r="A24" s="14"/>
       <c r="B24" s="14"/>
       <c r="C24" s="14"/>
       <c r="D24" s="14"/>
     </row>
-    <row r="25" spans="1:4" ht="14.25">
+    <row r="25" spans="1:4" ht="13.8">
       <c r="A25" s="14"/>
       <c r="B25" s="14"/>
       <c r="C25" s="14"/>
       <c r="D25" s="14"/>
     </row>
-    <row r="26" spans="1:4" ht="14.25">
+    <row r="26" spans="1:4" ht="13.8">
       <c r="A26" s="14"/>
       <c r="B26" s="14"/>
       <c r="C26" s="14"/>
       <c r="D26" s="14"/>
     </row>
-    <row r="27" spans="1:4" ht="15">
-      <c r="A27" s="16"/>
+    <row r="27" spans="1:4" ht="13.8">
+      <c r="A27" s="17"/>
       <c r="B27" s="12"/>
       <c r="C27" s="12"/>
       <c r="D27" s="12"/>
     </row>
-    <row r="28" spans="1:4" ht="15">
+    <row r="28" spans="1:4" ht="13.8">
       <c r="A28" s="13"/>
       <c r="B28" s="12"/>
       <c r="C28" s="12"/>
       <c r="D28" s="12"/>
     </row>
-    <row r="29" spans="1:4" ht="15">
+    <row r="29" spans="1:4" ht="13.8">
       <c r="A29" s="13"/>
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
       <c r="D29" s="12"/>
     </row>
-    <row r="30" spans="1:4" ht="14.25">
+    <row r="30" spans="1:4" ht="13.8">
       <c r="A30" s="15"/>
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
       <c r="D30" s="12"/>
     </row>
-    <row r="31" spans="1:4" ht="14.25">
+    <row r="31" spans="1:4" ht="13.8">
       <c r="A31" s="15"/>
       <c r="B31" s="12"/>
       <c r="C31" s="14"/>
@@ -1784,31 +1782,31 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="32.28515625" customWidth="1"/>
-    <col min="2" max="2" width="50.42578125" customWidth="1"/>
-    <col min="3" max="3" width="62.5703125" customWidth="1"/>
+    <col min="1" max="1" width="32.33203125" customWidth="1"/>
+    <col min="2" max="2" width="50.44140625" customWidth="1"/>
+    <col min="3" max="3" width="62.5546875" customWidth="1"/>
     <col min="4" max="4" width="50" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="19.5" customHeight="1">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="23" t="s">
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+    </row>
+    <row r="2" spans="1:4" ht="15.6">
+      <c r="A2" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-    </row>
-    <row r="3" spans="1:4" ht="14.25">
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+    </row>
+    <row r="3" spans="1:4" ht="13.8">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1816,7 +1814,7 @@
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:4" ht="15">
+    <row r="4" spans="1:4" ht="13.8">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1826,7 +1824,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:4" ht="15">
+    <row r="5" spans="1:4" ht="13.8">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -1836,7 +1834,7 @@
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:4" ht="15">
+    <row r="6" spans="1:4" ht="13.8">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -1846,7 +1844,7 @@
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:4" ht="15">
+    <row r="7" spans="1:4" ht="13.8">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -1856,7 +1854,7 @@
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:4" ht="15">
+    <row r="8" spans="1:4" ht="13.8">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -1870,7 +1868,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15">
+    <row r="9" spans="1:4" ht="13.8">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
@@ -1880,15 +1878,15 @@
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="23" t="s">
+    <row r="10" spans="1:4" ht="15.6">
+      <c r="A10" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-    </row>
-    <row r="11" spans="1:4" ht="14.25">
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+    </row>
+    <row r="11" spans="1:4" ht="13.8">
       <c r="A11" s="1" t="s">
         <v>1</v>
       </c>
@@ -1898,7 +1896,7 @@
       </c>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:4" ht="15">
+    <row r="12" spans="1:4" ht="13.8">
       <c r="A12" s="2" t="s">
         <v>18</v>
       </c>
@@ -1908,15 +1906,15 @@
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="23" t="s">
+    <row r="13" spans="1:4" ht="15.6">
+      <c r="A13" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-    </row>
-    <row r="14" spans="1:4" ht="14.25">
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+    </row>
+    <row r="14" spans="1:4" ht="13.8">
       <c r="A14" s="1" t="s">
         <v>1</v>
       </c>
@@ -1924,7 +1922,7 @@
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:4" ht="15">
+    <row r="15" spans="1:4" ht="13.8">
       <c r="A15" s="2" t="s">
         <v>21</v>
       </c>
@@ -1938,7 +1936,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15">
+    <row r="16" spans="1:4" ht="13.8">
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
@@ -1952,7 +1950,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15">
+    <row r="17" spans="1:4" ht="13.8">
       <c r="A17" s="1" t="s">
         <v>28</v>
       </c>
@@ -1964,15 +1962,15 @@
       </c>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="1:4" ht="15">
-      <c r="A18" s="24" t="s">
+    <row r="18" spans="1:4" ht="13.8">
+      <c r="A18" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="20"/>
+      <c r="B18" s="22"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="1:4" ht="15">
+    <row r="19" spans="1:4" ht="13.8">
       <c r="A19" s="5" t="s">
         <v>32</v>
       </c>
@@ -1986,7 +1984,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="14.25">
+    <row r="20" spans="1:4" ht="13.8">
       <c r="A20" s="8" t="s">
         <v>9</v>
       </c>
@@ -1996,7 +1994,7 @@
       <c r="C20" s="1"/>
       <c r="D20" s="9"/>
     </row>
-    <row r="21" spans="1:4" ht="14.25">
+    <row r="21" spans="1:4" ht="13.8">
       <c r="A21" s="8" t="s">
         <v>36</v>
       </c>
@@ -2010,11 +2008,11 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15">
-      <c r="A22" s="19" t="s">
+    <row r="22" spans="1:4" ht="13.8">
+      <c r="A22" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="B22" s="20"/>
+      <c r="B22" s="22"/>
       <c r="C22" s="1" t="s">
         <v>40</v>
       </c>
@@ -2022,7 +2020,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="14.25">
+    <row r="23" spans="1:4" ht="13.8">
       <c r="A23" s="10" t="s">
         <v>42</v>
       </c>
@@ -2030,11 +2028,11 @@
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
     </row>
-    <row r="30" spans="1:4" ht="12.75">
-      <c r="A30" s="21"/>
-      <c r="B30" s="20"/>
-      <c r="C30" s="20"/>
-      <c r="D30" s="20"/>
+    <row r="30" spans="1:4" ht="13.2">
+      <c r="A30" s="23"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/public/assets/BOs/Kronos.xlsx
+++ b/public/assets/BOs/Kronos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\doc\coding\DoD\DeitiesOfDeath\public\assets\BOs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{108720EF-FA72-4010-A63B-BC14F1B8F949}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECD8D47F-2763-4A6D-ACA7-3BA0210B53DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil2" sheetId="3" r:id="rId1"/>
@@ -849,10 +849,10 @@
     <t>archaic</t>
   </si>
   <si>
-    <t>Standard ora/kronos water - By Narcotic</t>
-  </si>
-  <si>
-    <t>Standard Kronos/Ora - By Narcotic</t>
+    <t>Standard Kronos/Ora - By Kvoth</t>
+  </si>
+  <si>
+    <t>Standard ora/kronos water - By Kvoth</t>
   </si>
 </sst>
 </file>
@@ -1352,13 +1352,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29201DD4-0BA0-4357-B6EF-E853727856B2}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1519,7 +1519,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9AFAB70-4E5E-42D3-83B6-DF9A10131128}">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
@@ -1527,7 +1527,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="21">
       <c r="A1" s="19" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>

--- a/public/assets/BOs/Kronos.xlsx
+++ b/public/assets/BOs/Kronos.xlsx
@@ -8,21 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\doc\coding\DoD\DeitiesOfDeath\public\assets\BOs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{743C6408-3CC5-4E3D-A66A-5731889980F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79672E4C-66FE-4263-883D-51DCDC55327B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil2" sheetId="3" r:id="rId1"/>
-    <sheet name="Feuil3" sheetId="4" r:id="rId2"/>
-    <sheet name="Feuil1" sheetId="5" r:id="rId3"/>
+    <sheet name="Feuil4" sheetId="6" r:id="rId2"/>
+    <sheet name="Feuil3" sheetId="4" r:id="rId3"/>
+    <sheet name="Feuil1" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="96">
   <si>
     <t>Archaic</t>
   </si>
@@ -745,6 +746,264 @@
   </si>
   <si>
     <t>Krush 6 vill - Defiance</t>
+  </si>
+  <si>
+    <t>Oranos/Kronos - 6 Citizen Rush BO - By Chonikler IV</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>/ 0 / 3</t>
+    </r>
+  </si>
+  <si>
+    <t>Initial 2 vills to hunt, use TC to kill multiple hunt targets if in range</t>
+  </si>
+  <si>
+    <t>Scout out map and enemy base with Oracles</t>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> / 0 / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> / 3</t>
+    </r>
+  </si>
+  <si>
+    <t>2 to Gold</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">3 / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> / 0 / 3</t>
+    </r>
+  </si>
+  <si>
+    <t>At 150 gold, 1 gold citizen builds temple, 2nd gold citizen to Hunt</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> / 0 / 3</t>
+    </r>
+  </si>
+  <si>
+    <t>1 to Food</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">5 / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> / 0 / 3</t>
+    </r>
+  </si>
+  <si>
+    <t>When temple is finished, send builder to food</t>
+  </si>
+  <si>
+    <t>Pause citizen autoqueue but let 6th citizen continue training</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> / 0 / 3</t>
+    </r>
+  </si>
+  <si>
+    <t>Advance (2:00-2:10)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RE-ENABLE citizen autoqueue</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> split citizens up as desired for rush, at least 1 to wood and 1 to food for citizen production post age up</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=GZhVM3WpLeA</t>
   </si>
 </sst>
 </file>
@@ -755,11 +1014,18 @@
     <numFmt numFmtId="164" formatCode="[$-410]General"/>
     <numFmt numFmtId="165" formatCode="[$€-410]&quot; &quot;#,##0.00;[Red]&quot;-&quot;[$€-410]&quot; &quot;#,##0.00"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="31">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -892,6 +1158,67 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -924,86 +1251,100 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="8">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="2" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="2" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="8"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="9">
     <cellStyle name="Excel Built-in Hyperlink" xfId="3" xr:uid="{AF420925-7D11-4B4B-B056-D95B36C2C522}"/>
     <cellStyle name="Excel Built-in Normal" xfId="1" xr:uid="{5F5B833E-894C-40AE-816C-12E3EC1F16F5}"/>
     <cellStyle name="Heading" xfId="4" xr:uid="{F93BCE2D-11FB-45DE-AABF-099762F93990}"/>
     <cellStyle name="Heading1" xfId="5" xr:uid="{0D91558A-CA94-4B52-A01E-6D82A406247E}"/>
+    <cellStyle name="Lien hypertexte" xfId="8" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{0C4249D6-572E-4D52-AB23-DB8CF996D3BD}"/>
     <cellStyle name="Result" xfId="6" xr:uid="{B3530545-77F0-44E4-9A39-D4E56FE019D7}"/>
@@ -1222,9 +1563,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29201DD4-0BA0-4357-B6EF-E853727856B2}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
@@ -1236,7 +1577,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="14.25">
+    <row r="3" spans="1:4" ht="13.8">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1244,7 +1585,7 @@
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:4" ht="15">
+    <row r="4" spans="1:4" ht="13.8">
       <c r="A4" s="3" t="s">
         <v>27</v>
       </c>
@@ -1256,7 +1597,7 @@
       </c>
       <c r="D4" s="4"/>
     </row>
-    <row r="5" spans="1:4" ht="15">
+    <row r="5" spans="1:4" ht="13.8">
       <c r="A5" s="5" t="s">
         <v>30</v>
       </c>
@@ -1266,7 +1607,7 @@
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:4" ht="15">
+    <row r="6" spans="1:4" ht="13.8">
       <c r="A6" s="3" t="s">
         <v>31</v>
       </c>
@@ -1278,7 +1619,7 @@
       </c>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:4" ht="15">
+    <row r="7" spans="1:4" ht="13.8">
       <c r="A7" s="3" t="s">
         <v>34</v>
       </c>
@@ -1288,7 +1629,7 @@
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:4" ht="15">
+    <row r="8" spans="1:4" ht="13.8">
       <c r="A8" s="5" t="s">
         <v>35</v>
       </c>
@@ -1300,7 +1641,7 @@
       </c>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:4" ht="15">
+    <row r="9" spans="1:4" ht="13.8">
       <c r="A9" s="5" t="s">
         <v>37</v>
       </c>
@@ -1312,21 +1653,21 @@
       </c>
       <c r="D9" s="2"/>
     </row>
-    <row r="10" spans="1:4" ht="14.25">
+    <row r="10" spans="1:4" ht="13.8">
       <c r="A10" s="4"/>
       <c r="B10" s="2"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
     </row>
-    <row r="11" spans="1:4" ht="15.75">
-      <c r="A11" s="8" t="s">
+    <row r="11" spans="1:4" ht="15.6">
+      <c r="A11" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-    </row>
-    <row r="12" spans="1:4" ht="14.25">
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+    </row>
+    <row r="12" spans="1:4" ht="13.8">
       <c r="A12" s="4" t="s">
         <v>40</v>
       </c>
@@ -1334,7 +1675,7 @@
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
     </row>
-    <row r="13" spans="1:4" ht="14.25">
+    <row r="13" spans="1:4" ht="13.8">
       <c r="A13" s="5" t="s">
         <v>41</v>
       </c>
@@ -1344,7 +1685,7 @@
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
     </row>
-    <row r="14" spans="1:4" ht="14.25">
+    <row r="14" spans="1:4" ht="13.8">
       <c r="A14" s="5" t="s">
         <v>43</v>
       </c>
@@ -1354,7 +1695,7 @@
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
     </row>
-    <row r="15" spans="1:4" ht="14.25">
+    <row r="15" spans="1:4" ht="13.8">
       <c r="A15" s="5" t="s">
         <v>45</v>
       </c>
@@ -1364,13 +1705,13 @@
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
     </row>
-    <row r="16" spans="1:4" ht="14.25">
+    <row r="16" spans="1:4" ht="13.8">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
     </row>
-    <row r="17" spans="2:4" ht="14.25">
+    <row r="17" spans="2:4" ht="13.8">
       <c r="B17" s="4" t="s">
         <v>47</v>
       </c>
@@ -1386,6 +1727,173 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6290AB1-5BA3-40D8-96B4-72BADE75A566}">
+  <dimension ref="A1:D22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="17.399999999999999">
+      <c r="A1" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+    </row>
+    <row r="2" spans="1:4" ht="15.6">
+      <c r="A2" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+    </row>
+    <row r="3" spans="1:4" ht="13.8">
+      <c r="A3" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+    </row>
+    <row r="4" spans="1:4" ht="13.8">
+      <c r="A4" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" s="26"/>
+      <c r="D4" s="28" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="13.8">
+      <c r="A5" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="B5" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="D5" s="26"/>
+    </row>
+    <row r="6" spans="1:4" ht="13.8">
+      <c r="A6" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="B6" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6" s="28"/>
+      <c r="D6" s="26"/>
+    </row>
+    <row r="7" spans="1:4" ht="13.8">
+      <c r="A7" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" s="28"/>
+      <c r="D7" s="26"/>
+    </row>
+    <row r="8" spans="1:4" ht="13.8">
+      <c r="A8" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="B8" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="D8" s="26"/>
+    </row>
+    <row r="9" spans="1:4" ht="13.8">
+      <c r="A9" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="D9" s="26"/>
+    </row>
+    <row r="10" spans="1:4" ht="15.6">
+      <c r="A10" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+    </row>
+    <row r="11" spans="1:4" ht="13.8">
+      <c r="A11" s="26"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+    </row>
+    <row r="12" spans="1:4" ht="13.8">
+      <c r="A12" s="26"/>
+      <c r="B12" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="D12" s="26"/>
+    </row>
+    <row r="13" spans="1:4" ht="13.8">
+      <c r="A13" s="30"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="32" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="33"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+    </row>
+    <row r="16" spans="1:4" ht="15">
+      <c r="A16" s="34"/>
+    </row>
+    <row r="17" spans="1:2" ht="15">
+      <c r="A17" s="34"/>
+    </row>
+    <row r="18" spans="1:2" ht="15">
+      <c r="A18" s="34"/>
+      <c r="B18" s="8"/>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="9"/>
+    </row>
+    <row r="20" spans="1:2" ht="15">
+      <c r="A20" s="8"/>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="9"/>
+    </row>
+    <row r="22" spans="1:2" ht="15">
+      <c r="A22" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A15:D15"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9AFAB70-4E5E-42D3-83B6-DF9A10131128}">
   <dimension ref="A1:D31"/>
   <sheetViews>
@@ -1393,23 +1901,23 @@
       <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="22.5">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:4" ht="21">
+      <c r="A1" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-    </row>
-    <row r="2" spans="1:4" ht="14.25">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-    </row>
-    <row r="3" spans="1:4" ht="14.25">
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+    </row>
+    <row r="2" spans="1:4" ht="13.8">
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+    </row>
+    <row r="3" spans="1:4" ht="13.8">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1417,7 +1925,7 @@
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:4" ht="15">
+    <row r="4" spans="1:4" ht="13.8">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
@@ -1427,7 +1935,7 @@
       <c r="C4" s="2"/>
       <c r="D4" s="4"/>
     </row>
-    <row r="5" spans="1:4" ht="15">
+    <row r="5" spans="1:4" ht="13.8">
       <c r="A5" s="5" t="s">
         <v>7</v>
       </c>
@@ -1437,7 +1945,7 @@
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:4" ht="15">
+    <row r="6" spans="1:4" ht="13.8">
       <c r="A6" s="5" t="s">
         <v>9</v>
       </c>
@@ -1447,7 +1955,7 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:4" ht="15">
+    <row r="7" spans="1:4" ht="13.8">
       <c r="A7" s="5" t="s">
         <v>11</v>
       </c>
@@ -1457,7 +1965,7 @@
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:4" ht="15">
+    <row r="8" spans="1:4" ht="13.8">
       <c r="A8" s="5" t="s">
         <v>13</v>
       </c>
@@ -1467,7 +1975,7 @@
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:4" ht="15">
+    <row r="9" spans="1:4" ht="13.8">
       <c r="A9" s="5" t="s">
         <v>15</v>
       </c>
@@ -1477,7 +1985,7 @@
       <c r="C9" s="4"/>
       <c r="D9" s="2"/>
     </row>
-    <row r="10" spans="1:4" ht="15">
+    <row r="10" spans="1:4" ht="13.8">
       <c r="A10" s="5" t="s">
         <v>17</v>
       </c>
@@ -1487,7 +1995,7 @@
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
     </row>
-    <row r="11" spans="1:4" ht="15">
+    <row r="11" spans="1:4" ht="13.8">
       <c r="A11" s="5" t="s">
         <v>19</v>
       </c>
@@ -1497,15 +2005,15 @@
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
     </row>
-    <row r="12" spans="1:4" ht="15.75">
-      <c r="A12" s="8" t="s">
+    <row r="12" spans="1:4" ht="15.6">
+      <c r="A12" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-    </row>
-    <row r="13" spans="1:4" ht="14.25">
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+    </row>
+    <row r="13" spans="1:4" ht="13.8">
       <c r="A13" s="4" t="s">
         <v>21</v>
       </c>
@@ -1513,7 +2021,7 @@
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
     </row>
-    <row r="14" spans="1:4" ht="15">
+    <row r="14" spans="1:4" ht="13.8">
       <c r="A14" s="3" t="s">
         <v>22</v>
       </c>
@@ -1523,7 +2031,7 @@
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
     </row>
-    <row r="15" spans="1:4" ht="14.25">
+    <row r="15" spans="1:4" ht="13.8">
       <c r="A15" s="5"/>
       <c r="B15" s="2" t="s">
         <v>24</v>
@@ -1531,7 +2039,7 @@
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
     </row>
-    <row r="16" spans="1:4" ht="14.25">
+    <row r="16" spans="1:4" ht="13.8">
       <c r="A16" s="5"/>
       <c r="B16" s="2" t="s">
         <v>25</v>
@@ -1539,7 +2047,7 @@
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
     </row>
-    <row r="17" spans="1:4" ht="14.25">
+    <row r="17" spans="1:4" ht="13.8">
       <c r="A17" s="4"/>
       <c r="B17" s="4" t="s">
         <v>26</v>
@@ -1547,85 +2055,85 @@
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
     </row>
-    <row r="18" spans="1:4" ht="14.25">
+    <row r="18" spans="1:4" ht="13.8">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
     </row>
-    <row r="19" spans="1:4" ht="14.25">
+    <row r="19" spans="1:4" ht="13.8">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
     </row>
-    <row r="20" spans="1:4" ht="14.25">
+    <row r="20" spans="1:4" ht="13.8">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
     </row>
-    <row r="21" spans="1:4" ht="14.25">
+    <row r="21" spans="1:4" ht="13.8">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
     </row>
-    <row r="22" spans="1:4" ht="14.25">
+    <row r="22" spans="1:4" ht="13.8">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
     </row>
-    <row r="23" spans="1:4" ht="14.25">
+    <row r="23" spans="1:4" ht="13.8">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
     </row>
-    <row r="24" spans="1:4" ht="14.25">
+    <row r="24" spans="1:4" ht="13.8">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
     </row>
-    <row r="25" spans="1:4" ht="14.25">
+    <row r="25" spans="1:4" ht="13.8">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
     </row>
-    <row r="26" spans="1:4" ht="14.25">
+    <row r="26" spans="1:4" ht="13.8">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
     </row>
-    <row r="27" spans="1:4" ht="15">
+    <row r="27" spans="1:4" ht="13.8">
       <c r="A27" s="7"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
     </row>
-    <row r="28" spans="1:4" ht="15">
+    <row r="28" spans="1:4" ht="13.8">
       <c r="A28" s="3"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
     </row>
-    <row r="29" spans="1:4" ht="15">
+    <row r="29" spans="1:4" ht="13.8">
       <c r="A29" s="3"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
     </row>
-    <row r="30" spans="1:4" ht="14.25">
+    <row r="30" spans="1:4" ht="13.8">
       <c r="A30" s="5"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
     </row>
-    <row r="31" spans="1:4" ht="14.25">
+    <row r="31" spans="1:4" ht="13.8">
       <c r="A31" s="5"/>
       <c r="B31" s="2"/>
       <c r="C31" s="4"/>
@@ -1641,7 +2149,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BE44DDD-FD83-4859-87F1-724BEE06FE49}">
   <dimension ref="A1:D15"/>
   <sheetViews>
@@ -1649,163 +2157,161 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="18">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:4" ht="17.399999999999999">
+      <c r="A1" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-    </row>
-    <row r="2" spans="1:4" ht="15.75">
-      <c r="A2" s="13" t="s">
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+    </row>
+    <row r="2" spans="1:4" ht="15.6">
+      <c r="A2" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
     </row>
     <row r="3" spans="1:4" ht="15">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
     </row>
     <row r="4" spans="1:4" ht="409.6">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="11" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="315.75">
-      <c r="A5" s="18" t="s">
+    <row r="5" spans="1:4" ht="300.60000000000002">
+      <c r="A5" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19" t="s">
+      <c r="C5" s="11"/>
+      <c r="D5" s="11" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="195.75">
-      <c r="A6" s="18" t="s">
+    <row r="6" spans="1:4" ht="195.6">
+      <c r="A6" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="D6" s="18"/>
+      <c r="D6" s="10"/>
     </row>
     <row r="7" spans="1:4" ht="15">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18" t="s">
+      <c r="C7" s="10"/>
+      <c r="D7" s="10" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.75">
-      <c r="A8" s="14" t="s">
+    <row r="8" spans="1:4" ht="15.6">
+      <c r="A8" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="B8" s="26"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
     </row>
     <row r="9" spans="1:4" ht="15">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-    </row>
-    <row r="10" spans="1:4" ht="409.5">
-      <c r="A10" s="18" t="s">
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+    </row>
+    <row r="10" spans="1:4" ht="409.6">
+      <c r="A10" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="D10" s="24" t="s">
+      <c r="D10" s="16" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.75">
-      <c r="A11" s="14" t="s">
+    <row r="11" spans="1:4" ht="15.6">
+      <c r="A11" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="B11" s="26"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-    </row>
-    <row r="12" spans="1:4" ht="20.25">
-      <c r="A12" s="18" t="s">
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+    </row>
+    <row r="12" spans="1:4" ht="19.8">
+      <c r="A12" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="15"/>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="D12" s="21" t="s">
+      <c r="D12" s="13" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="255.75">
-      <c r="A13" s="18" t="s">
+    <row r="13" spans="1:4" ht="255.6">
+      <c r="A13" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="C13" s="23" t="s">
+      <c r="C13" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="D13" s="23" t="s">
+      <c r="D13" s="15" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="285">
-      <c r="A14" s="17"/>
-      <c r="B14" s="23" t="s">
+      <c r="A14" s="9"/>
+      <c r="B14" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="C14" s="23" t="s">
+      <c r="C14" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="D14" s="25" t="s">
+      <c r="D14" s="17" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="315">
-      <c r="A15" s="16"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23" t="s">
+      <c r="A15" s="8"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15" t="s">
         <v>77</v>
       </c>
     </row>
